--- a/output/1Y_P29_1VAL-D.xlsx
+++ b/output/1Y_P29_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G2" s="1">
-        <v>688.1129</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1163</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.5325</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.75</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1163</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E3" s="1">
+        <v>688.1129</v>
+      </c>
       <c r="F3" s="1">
         <v>711.5513</v>
       </c>
-      <c r="G3" s="1">
-        <v>1399.6642</v>
-      </c>
       <c r="H3" s="1">
-        <v>19568.5649</v>
+        <v>9620.437</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2891</v>
+        <v>9620.437</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.5325</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.5649</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E4" s="1">
+        <v>1399.6642</v>
+      </c>
       <c r="F4" s="1">
         <v>758.3053</v>
       </c>
-      <c r="G4" s="1">
-        <v>2157.9695</v>
-      </c>
       <c r="H4" s="1">
-        <v>28310.1863</v>
+        <v>18362.0543</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.902</v>
+        <v>18362.0543</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2891</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28310.1863</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0426</v>
+        <v>-0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E5" s="1">
+        <v>2157.9695</v>
+      </c>
       <c r="F5" s="1">
         <v>766.0605</v>
       </c>
-      <c r="G5" s="1">
-        <v>2924.03</v>
-      </c>
       <c r="H5" s="1">
-        <v>37971.7456</v>
+        <v>28023.6079</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6798</v>
+        <v>28023.6079</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.902</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37971.7456</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E6" s="1">
+        <v>2924.03</v>
+      </c>
       <c r="F6" s="1">
         <v>722.3711</v>
       </c>
-      <c r="G6" s="1">
-        <v>3646.4011</v>
-      </c>
       <c r="H6" s="1">
-        <v>50216.4125</v>
+        <v>40268.2788</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7122</v>
+        <v>40268.2788</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6798</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50216.4125</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0468</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E7" s="1">
+        <v>3646.4011</v>
+      </c>
       <c r="F7" s="1">
         <v>694.03</v>
       </c>
-      <c r="G7" s="1">
-        <v>4340.431</v>
-      </c>
       <c r="H7" s="1">
-        <v>62215.3044</v>
+        <v>52267.1485</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8235</v>
+        <v>52267.1485</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7122</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62215.3044</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0332</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E8" s="1">
+        <v>4340.431</v>
+      </c>
       <c r="F8" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G8" s="1">
-        <v>5010.053</v>
-      </c>
       <c r="H8" s="1">
-        <v>74430.8499</v>
+        <v>64482.7456</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9719</v>
+        <v>64482.7456</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.8235</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74430.8499</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0307</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E9" s="1">
+        <v>5010.053</v>
+      </c>
       <c r="F9" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G9" s="1">
-        <v>5637.7481</v>
-      </c>
       <c r="H9" s="1">
-        <v>89350.9789</v>
+        <v>79402.8265</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.1901</v>
+        <v>79402.8265</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9719</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89350.9789</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0583</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E10" s="1">
+        <v>5637.7481</v>
+      </c>
       <c r="F10" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G10" s="1">
-        <v>6225.268</v>
-      </c>
       <c r="H10" s="1">
-        <v>105408.7285</v>
+        <v>95460.60649999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14.4572</v>
+        <v>95460.60649999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.1901</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105408.7285</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.061</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E11" s="1">
+        <v>6225.268</v>
+      </c>
       <c r="F11" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G11" s="1">
-        <v>6797.9795</v>
-      </c>
       <c r="H11" s="1">
-        <v>118082.2632</v>
+        <v>108134.1508</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>14.7103</v>
+        <v>108134.1508</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.4572</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118082.2632</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0232</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.886</v>
       </c>
+      <c r="E12" s="1">
+        <v>6797.9795</v>
+      </c>
       <c r="F12" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G12" s="1">
-        <v>7390.186</v>
-      </c>
       <c r="H12" s="1">
-        <v>124144.0402</v>
+        <v>114195.8583</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>14.8846</v>
+        <v>114195.8583</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.7103</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124144.0402</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0307</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.59</v>
       </c>
+      <c r="E13" s="1">
+        <v>7390.186</v>
+      </c>
       <c r="F13" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G13" s="1">
-        <v>7958.6909</v>
-      </c>
       <c r="H13" s="1">
-        <v>139267.5399</v>
+        <v>129319.3875</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.0779</v>
+        <v>129319.3875</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.8846</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>139267.5399</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0382</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E14" s="1">
+        <v>7958.6909</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7958.6909</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7390.186</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118856.6813</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.0779</v>
+        <v>118856.6813</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.8214</v>
+      </c>
+      <c r="M14" s="1">
         <v>3.57</v>
       </c>
-      <c r="L14" s="1">
-        <v>25571.2738</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>144427.9551</v>
+        <v>23744.6678</v>
       </c>
       <c r="O14" s="1">
-        <v>144427.9551</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>144427.9551</v>
+        <v>134111.1842</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0324</v>
+        <v>-0.1469</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.5325</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>688.1129</v>
       </c>
       <c r="G2" s="1">
-        <v>688.1129</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1163</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.5325</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.75</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1163</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>688.1129</v>
       </c>
       <c r="F3" s="1">
         <v>711.5513</v>
       </c>
       <c r="G3" s="1">
-        <v>1399.6642</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.5649</v>
+        <v>9620.437</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2891</v>
+        <v>9620.437</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.5325</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.5649</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.1873</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1399.6642</v>
       </c>
       <c r="F4" s="1">
         <v>758.3053</v>
       </c>
       <c r="G4" s="1">
-        <v>2157.9695</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28310.1863</v>
+        <v>18362.0543</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.902</v>
+        <v>18362.0543</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2891</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28310.1863</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0426</v>
+        <v>-0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.0538</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2157.9695</v>
       </c>
       <c r="F5" s="1">
         <v>766.0605</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.03</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>37971.7456</v>
+        <v>28023.6079</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6798</v>
+        <v>28023.6079</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.902</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37971.7456</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.8433</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2924.03</v>
       </c>
       <c r="F6" s="1">
         <v>706.6566</v>
       </c>
       <c r="G6" s="1">
-        <v>3630.6866</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40268.2788</v>
       </c>
       <c r="I6" s="1">
-        <v>49782.4592</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7116</v>
+        <v>40268.2788</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39782.4592</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6054</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9782.459199999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>217.5408</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50217.5408</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0468</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.4086</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3630.6866</v>
       </c>
       <c r="F7" s="1">
         <v>555.1944999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>4185.881</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52041.8981</v>
       </c>
       <c r="I7" s="1">
-        <v>57782.0341</v>
+        <v>217.5408</v>
       </c>
       <c r="J7" s="1">
-        <v>13.804</v>
+        <v>52259.4389</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47782.0341</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.1606</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7999.5749</v>
       </c>
-      <c r="O7" s="1">
-        <v>2217.9659</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62217.9659</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0332</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.9338</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4185.881</v>
       </c>
       <c r="F8" s="1">
         <v>525.9247</v>
       </c>
       <c r="G8" s="1">
-        <v>4711.8058</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62186.7042</v>
       </c>
       <c r="I8" s="1">
-        <v>65636.08900000001</v>
+        <v>2217.9659</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9301</v>
+        <v>64404.6702</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55636.089</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.2914</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7854.0549</v>
       </c>
-      <c r="O8" s="1">
-        <v>4363.911</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74363.91099999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0297</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.9313</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4711.8058</v>
       </c>
       <c r="F9" s="1">
         <v>335.9269</v>
       </c>
       <c r="G9" s="1">
-        <v>5047.7326</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74675.996</v>
       </c>
       <c r="I9" s="1">
-        <v>70987.84050000001</v>
+        <v>4363.911</v>
       </c>
       <c r="J9" s="1">
-        <v>14.0633</v>
+        <v>79039.90700000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>60987.8405</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.9436</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5351.7515</v>
       </c>
-      <c r="O9" s="1">
-        <v>9012.1595</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89012.15949999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0551</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.0207</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5047.7326</v>
       </c>
       <c r="F10" s="1">
         <v>267.521</v>
       </c>
       <c r="G10" s="1">
-        <v>5315.2536</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>85470.22779999999</v>
       </c>
       <c r="I10" s="1">
-        <v>75541.23480000001</v>
+        <v>9012.1595</v>
       </c>
       <c r="J10" s="1">
-        <v>14.2122</v>
+        <v>94482.3873</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>65541.23480000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.9843</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4553.3943</v>
       </c>
-      <c r="O10" s="1">
-        <v>14458.7652</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104458.7652</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.055</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.4608</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5315.2536</v>
       </c>
       <c r="F11" s="1">
         <v>441.7325</v>
       </c>
       <c r="G11" s="1">
-        <v>5756.9861</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92327.018</v>
       </c>
       <c r="I11" s="1">
-        <v>83254.2377</v>
+        <v>14458.7652</v>
       </c>
       <c r="J11" s="1">
-        <v>14.4614</v>
+        <v>106785.7832</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>73254.2377</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7819</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7713.0029</v>
       </c>
-      <c r="O11" s="1">
-        <v>16745.7623</v>
-      </c>
-      <c r="P11" s="1">
-        <v>116745.7623</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.886</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5756.9861</v>
       </c>
       <c r="F12" s="1">
         <v>791.2175999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6548.2037</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96708.731</v>
       </c>
       <c r="I12" s="1">
-        <v>96614.73820000001</v>
+        <v>16745.7623</v>
       </c>
       <c r="J12" s="1">
-        <v>14.7544</v>
+        <v>113454.4933</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>86614.73820000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.0452</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13360.5005</v>
       </c>
-      <c r="O12" s="1">
-        <v>13385.2618</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123385.2618</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0265</v>
+        <v>-0.0285</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.59</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6548.2037</v>
       </c>
       <c r="F13" s="1">
         <v>309.4094</v>
       </c>
       <c r="G13" s="1">
-        <v>6857.6131</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114585.7071</v>
       </c>
       <c r="I13" s="1">
-        <v>102057.2493</v>
+        <v>13385.2618</v>
       </c>
       <c r="J13" s="1">
-        <v>14.8823</v>
+        <v>127970.9688</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>92057.2493</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.0584</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5442.5111</v>
       </c>
-      <c r="O13" s="1">
-        <v>17942.7507</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137942.7507</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0342</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.0121</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6857.6131</v>
       </c>
       <c r="F14" s="1">
         <v>-6857.6131</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>102412.9655</v>
       </c>
       <c r="I14" s="1">
-        <v>102057.2493</v>
+        <v>17942.7507</v>
       </c>
       <c r="J14" s="1">
-        <v>14.8823</v>
+        <v>120355.7162</v>
       </c>
       <c r="K14" s="1">
+        <v>92057.2493</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.4241</v>
+      </c>
+      <c r="M14" s="1">
         <v>3.57</v>
       </c>
-      <c r="L14" s="1">
-        <v>22033.5109</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>124446.4763</v>
+        <v>21039.3785</v>
       </c>
       <c r="O14" s="1">
-        <v>142389.227</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142389.227</v>
+        <v>123452.344</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0375</v>
+        <v>-0.1277</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.5325</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>688.1129</v>
       </c>
       <c r="G2" s="1">
-        <v>688.1129</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1163</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.5325</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.75</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1163</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>688.1129</v>
       </c>
       <c r="F3" s="1">
         <v>711.5513</v>
       </c>
       <c r="G3" s="1">
-        <v>1399.6642</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.5649</v>
+        <v>9620.437</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2891</v>
+        <v>9620.437</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.5325</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.5649</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.1873</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1399.6642</v>
       </c>
       <c r="F4" s="1">
         <v>758.3053</v>
       </c>
       <c r="G4" s="1">
-        <v>2157.9695</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28310.1863</v>
+        <v>18362.0543</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.902</v>
+        <v>18362.0543</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2891</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28310.1863</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0426</v>
+        <v>-0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.0538</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2157.9695</v>
       </c>
       <c r="F5" s="1">
         <v>766.0605</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.03</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>37971.7456</v>
+        <v>28023.6079</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6798</v>
+        <v>28023.6079</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.902</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37971.7456</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.8433</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2924.03</v>
       </c>
       <c r="F6" s="1">
         <v>722.3711</v>
       </c>
       <c r="G6" s="1">
-        <v>3646.4011</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50216.4125</v>
+        <v>40268.2788</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7122</v>
+        <v>40268.2788</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6798</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50216.4125</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0468</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.4086</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3646.4011</v>
       </c>
       <c r="F7" s="1">
         <v>592.1536</v>
       </c>
       <c r="G7" s="1">
-        <v>4238.5547</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52267.1485</v>
       </c>
       <c r="I7" s="1">
-        <v>58532.1042</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8094</v>
+        <v>52267.1485</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48532.1042</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.3096</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8532.1042</v>
       </c>
-      <c r="O7" s="1">
-        <v>1467.8958</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62222.9146</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0333</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.9338</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4238.5547</v>
       </c>
       <c r="F8" s="1">
         <v>544.5201</v>
       </c>
       <c r="G8" s="1">
-        <v>4783.0748</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62969.2397</v>
       </c>
       <c r="I8" s="1">
-        <v>66663.85860000001</v>
+        <v>1467.8958</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9374</v>
+        <v>64437.1356</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56663.8586</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.3687</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8131.7544</v>
       </c>
-      <c r="O8" s="1">
-        <v>3336.1414</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74394.9353</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0301</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.9313</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4783.0748</v>
       </c>
       <c r="F9" s="1">
         <v>353.8821</v>
       </c>
       <c r="G9" s="1">
-        <v>5136.9568</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75805.51730000001</v>
       </c>
       <c r="I9" s="1">
-        <v>72301.65979999999</v>
+        <v>3336.1414</v>
       </c>
       <c r="J9" s="1">
-        <v>14.0748</v>
+        <v>79141.6587</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62301.6598</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.0254</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5637.8012</v>
       </c>
-      <c r="O9" s="1">
-        <v>7698.3402</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89112.428</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0559</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.0207</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5136.9568</v>
       </c>
       <c r="F10" s="1">
         <v>285.8514</v>
       </c>
       <c r="G10" s="1">
-        <v>5422.8082</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86981.008</v>
       </c>
       <c r="I10" s="1">
-        <v>77167.0508</v>
+        <v>7698.3402</v>
       </c>
       <c r="J10" s="1">
-        <v>14.2301</v>
+        <v>94679.3481</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>67167.0508</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.0753</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4865.391</v>
       </c>
-      <c r="O10" s="1">
-        <v>12832.9492</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104654.1075</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0559</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.4608</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5422.8082</v>
       </c>
       <c r="F11" s="1">
         <v>465.4523</v>
       </c>
       <c r="G11" s="1">
-        <v>5888.2606</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94195.2637</v>
       </c>
       <c r="I11" s="1">
-        <v>85294.2212</v>
+        <v>12832.9492</v>
       </c>
       <c r="J11" s="1">
-        <v>14.4855</v>
+        <v>107028.2129</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>75294.2212</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8847</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8127.1703</v>
       </c>
-      <c r="O11" s="1">
-        <v>14705.7788</v>
-      </c>
-      <c r="P11" s="1">
-        <v>116986.0429</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0203</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.886</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5888.2606</v>
       </c>
       <c r="F12" s="1">
         <v>826.1285</v>
       </c>
       <c r="G12" s="1">
-        <v>6714.3891</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>98913.9455</v>
       </c>
       <c r="I12" s="1">
-        <v>99244.2273</v>
+        <v>14705.7788</v>
       </c>
       <c r="J12" s="1">
-        <v>14.7808</v>
+        <v>113619.7243</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89244.2273</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.1563</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13950.0061</v>
       </c>
-      <c r="O12" s="1">
-        <v>10755.7727</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123547.4381</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0271</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.59</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6714.3891</v>
       </c>
       <c r="F13" s="1">
         <v>334.9871</v>
       </c>
       <c r="G13" s="1">
-        <v>7049.3762</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>117493.7521</v>
       </c>
       <c r="I13" s="1">
-        <v>105136.6498</v>
+        <v>10755.7727</v>
       </c>
       <c r="J13" s="1">
-        <v>14.9143</v>
+        <v>128249.5248</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95136.6498</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.1691</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5892.4225</v>
       </c>
-      <c r="O13" s="1">
-        <v>14863.3502</v>
-      </c>
-      <c r="P13" s="1">
-        <v>138218.974</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>15.0121</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7049.3762</v>
       </c>
       <c r="F14" s="1">
         <v>-7049.3762</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>105276.7936</v>
       </c>
       <c r="I14" s="1">
-        <v>105136.6498</v>
+        <v>14863.3502</v>
       </c>
       <c r="J14" s="1">
-        <v>14.9143</v>
+        <v>120140.1438</v>
       </c>
       <c r="K14" s="1">
+        <v>95136.6498</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.4958</v>
+      </c>
+      <c r="M14" s="1">
         <v>3.57</v>
       </c>
-      <c r="L14" s="1">
-        <v>22649.6456</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>127926.4392</v>
+        <v>21573.3322</v>
       </c>
       <c r="O14" s="1">
-        <v>142789.7895</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>142789.7895</v>
+        <v>126850.1258</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0366</v>
+        <v>-0.131</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.5325</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>688.1129</v>
       </c>
       <c r="G2" s="1">
-        <v>688.1129</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1163</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.5325</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.75</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1163</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>688.1129</v>
       </c>
       <c r="F3" s="1">
         <v>711.5513</v>
       </c>
       <c r="G3" s="1">
-        <v>1399.6642</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.5649</v>
+        <v>9620.437</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2891</v>
+        <v>9620.437</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.5325</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.5649</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.1873</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1399.6642</v>
       </c>
       <c r="F4" s="1">
         <v>758.3053</v>
       </c>
       <c r="G4" s="1">
-        <v>2157.9695</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28310.1863</v>
+        <v>18362.0543</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.902</v>
+        <v>18362.0543</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2891</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28310.1863</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0426</v>
+        <v>-0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.0538</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2157.9695</v>
       </c>
       <c r="F5" s="1">
         <v>766.0605</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.03</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>37971.7456</v>
+        <v>28023.6079</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6798</v>
+        <v>28023.6079</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.902</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37971.7456</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.8433</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2924.03</v>
       </c>
       <c r="F6" s="1">
         <v>722.3711</v>
       </c>
       <c r="G6" s="1">
-        <v>3646.4011</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50216.4125</v>
+        <v>40268.2788</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7122</v>
+        <v>40268.2788</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6798</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50216.4125</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0468</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.4086</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3646.4011</v>
       </c>
       <c r="F7" s="1">
         <v>645.5328</v>
       </c>
       <c r="G7" s="1">
-        <v>4291.9338</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52267.1485</v>
       </c>
       <c r="I7" s="1">
-        <v>59301.2234</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8169</v>
+        <v>52267.1485</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49301.2234</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5205</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9301.223400000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>698.7766</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62218.9272</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0333</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.9338</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4291.9338</v>
       </c>
       <c r="F8" s="1">
         <v>563.6057</v>
       </c>
       <c r="G8" s="1">
-        <v>4855.5395</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63762.2568</v>
       </c>
       <c r="I8" s="1">
-        <v>67717.9981</v>
+        <v>698.7766</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9465</v>
+        <v>64461.0334</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57717.9981</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.448</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8416.7747</v>
       </c>
-      <c r="O8" s="1">
-        <v>2282.0019</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74417.35400000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0304</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.9313</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4855.5395</v>
       </c>
       <c r="F9" s="1">
         <v>372.4417</v>
       </c>
       <c r="G9" s="1">
-        <v>5227.9812</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>76953.9895</v>
       </c>
       <c r="I9" s="1">
-        <v>73651.4779</v>
+        <v>2282.0019</v>
       </c>
       <c r="J9" s="1">
-        <v>14.0879</v>
+        <v>79235.9914</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63651.4779</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.109</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5933.4798</v>
       </c>
-      <c r="O9" s="1">
-        <v>6348.5221</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89205.2277</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0567</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.0207</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5227.9812</v>
       </c>
       <c r="F10" s="1">
         <v>304.9186</v>
       </c>
       <c r="G10" s="1">
-        <v>5532.8998</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>88522.2689</v>
       </c>
       <c r="I10" s="1">
-        <v>78841.406</v>
+        <v>6348.5221</v>
       </c>
       <c r="J10" s="1">
-        <v>14.2496</v>
+        <v>94870.791</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>68841.406</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.1679</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5189.9281</v>
       </c>
-      <c r="O10" s="1">
-        <v>11158.594</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104843.8667</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0568</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.4608</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5532.8998</v>
       </c>
       <c r="F11" s="1">
         <v>490.1814</v>
       </c>
       <c r="G11" s="1">
-        <v>6023.0812</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96107.5762</v>
       </c>
       <c r="I11" s="1">
-        <v>87400.36569999999</v>
+        <v>11158.594</v>
       </c>
       <c r="J11" s="1">
-        <v>14.5109</v>
+        <v>107266.1702</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>77400.36569999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9891</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8558.9596</v>
       </c>
-      <c r="O11" s="1">
-        <v>12599.6343</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117221.7598</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0207</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.886</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6023.0812</v>
       </c>
       <c r="F12" s="1">
         <v>862.5542</v>
       </c>
       <c r="G12" s="1">
-        <v>6885.6354</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>101178.7299</v>
       </c>
       <c r="I12" s="1">
-        <v>101965.4559</v>
+        <v>12599.6343</v>
       </c>
       <c r="J12" s="1">
-        <v>14.8084</v>
+        <v>113778.3642</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91965.4559</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.2688</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-14565.0903</v>
       </c>
-      <c r="O12" s="1">
-        <v>8034.5441</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123702.8907</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0277</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.59</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6885.6354</v>
       </c>
       <c r="F13" s="1">
         <v>362.0061</v>
       </c>
       <c r="G13" s="1">
-        <v>7247.6416</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>120490.3572</v>
       </c>
       <c r="I13" s="1">
-        <v>108333.1439</v>
+        <v>8034.5441</v>
       </c>
       <c r="J13" s="1">
-        <v>14.9474</v>
+        <v>128524.9012</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98333.1439</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.2809</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6367.6879</v>
       </c>
-      <c r="O13" s="1">
-        <v>11666.8561</v>
-      </c>
-      <c r="P13" s="1">
-        <v>138491.8863</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0358</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>15.0121</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7247.6416</v>
       </c>
       <c r="F14" s="1">
         <v>-7247.6416</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108237.7286</v>
       </c>
       <c r="I14" s="1">
-        <v>108333.1439</v>
+        <v>11666.8561</v>
       </c>
       <c r="J14" s="1">
-        <v>14.9474</v>
+        <v>119904.5847</v>
       </c>
       <c r="K14" s="1">
+        <v>98333.1439</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.5676</v>
+      </c>
+      <c r="M14" s="1">
         <v>3.57</v>
       </c>
-      <c r="L14" s="1">
-        <v>23286.6723</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>131524.4009</v>
+        <v>22123.5466</v>
       </c>
       <c r="O14" s="1">
-        <v>143191.257</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>143191.257</v>
+        <v>130361.2752</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0357</v>
+        <v>-0.1344</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.5325</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>688.1129</v>
       </c>
       <c r="G2" s="1">
-        <v>688.1129</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1163</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.5325</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.75</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1163</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>688.1129</v>
       </c>
       <c r="F3" s="1">
         <v>711.5513</v>
       </c>
       <c r="G3" s="1">
-        <v>1399.6642</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.5649</v>
+        <v>9620.437</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2891</v>
+        <v>9620.437</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.5325</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.5649</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.1873</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1399.6642</v>
       </c>
       <c r="F4" s="1">
         <v>758.3053</v>
       </c>
       <c r="G4" s="1">
-        <v>2157.9695</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28310.1863</v>
+        <v>18362.0543</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.902</v>
+        <v>18362.0543</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2891</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28310.1863</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0426</v>
+        <v>-0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.0538</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2157.9695</v>
       </c>
       <c r="F5" s="1">
         <v>766.0605</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.03</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>37971.7456</v>
+        <v>28023.6079</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6798</v>
+        <v>28023.6079</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.902</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37971.7456</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.8433</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2924.03</v>
       </c>
       <c r="F6" s="1">
         <v>722.3711</v>
       </c>
       <c r="G6" s="1">
-        <v>3646.4011</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50216.4125</v>
+        <v>40268.2788</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7122</v>
+        <v>40268.2788</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6798</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50216.4125</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0468</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.4086</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3646.4011</v>
       </c>
       <c r="F7" s="1">
         <v>694.03</v>
       </c>
       <c r="G7" s="1">
-        <v>4340.431</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62215.3044</v>
+        <v>52267.1485</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8235</v>
+        <v>52267.1485</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7122</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62215.3044</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0332</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.9338</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4340.431</v>
       </c>
       <c r="F8" s="1">
         <v>588.787</v>
       </c>
       <c r="G8" s="1">
-        <v>4929.218</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64482.7456</v>
       </c>
       <c r="I8" s="1">
-        <v>68792.8273</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9561</v>
+        <v>64482.7456</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58792.8273</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5454</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8792.827300000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>1207.1727</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74437.1146</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0308</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.9313</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4929.218</v>
       </c>
       <c r="F9" s="1">
         <v>391.6216</v>
       </c>
       <c r="G9" s="1">
-        <v>5320.8396</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>78121.6979</v>
       </c>
       <c r="I9" s="1">
-        <v>75031.86840000001</v>
+        <v>1207.1727</v>
       </c>
       <c r="J9" s="1">
-        <v>14.1015</v>
+        <v>79328.87059999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65031.8684</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.1931</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6239.0411</v>
       </c>
-      <c r="O9" s="1">
-        <v>4968.1316</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89296.5227</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0576</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.0207</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5320.8396</v>
       </c>
       <c r="F10" s="1">
         <v>324.7462</v>
       </c>
       <c r="G10" s="1">
-        <v>5645.5858</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>90094.58500000001</v>
       </c>
       <c r="I10" s="1">
-        <v>80559.2755</v>
+        <v>4968.1316</v>
       </c>
       <c r="J10" s="1">
-        <v>14.2694</v>
+        <v>95062.7166</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70559.2755</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.2609</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5527.407</v>
       </c>
-      <c r="O10" s="1">
-        <v>9440.7245</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105034.0415</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0578</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.4608</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5645.5858</v>
       </c>
       <c r="F11" s="1">
         <v>515.9562</v>
       </c>
       <c r="G11" s="1">
-        <v>6161.542</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>98064.9544</v>
       </c>
       <c r="I11" s="1">
-        <v>89568.2834</v>
+        <v>9440.7245</v>
       </c>
       <c r="J11" s="1">
-        <v>14.5367</v>
+        <v>107505.6789</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>79568.2834</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.0939</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9009.007900000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>10431.7166</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117458.9333</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0211</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.886</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6161.542</v>
       </c>
       <c r="F12" s="1">
         <v>900.5543</v>
       </c>
       <c r="G12" s="1">
-        <v>7062.0963</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>103504.6631</v>
       </c>
       <c r="I12" s="1">
-        <v>104775.0437</v>
+        <v>10431.7166</v>
       </c>
       <c r="J12" s="1">
-        <v>14.8363</v>
+        <v>113936.3798</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94775.04369999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3817</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-15206.7603</v>
       </c>
-      <c r="O12" s="1">
-        <v>5224.9563</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123857.5812</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0283</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.59</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7062.0963</v>
       </c>
       <c r="F13" s="1">
         <v>390.5355</v>
       </c>
       <c r="G13" s="1">
-        <v>7452.6319</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>123578.211</v>
       </c>
       <c r="I13" s="1">
-        <v>111644.5639</v>
+        <v>5224.9563</v>
       </c>
       <c r="J13" s="1">
-        <v>14.9806</v>
+        <v>128803.1673</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101644.5639</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.393</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6869.5202</v>
       </c>
-      <c r="O13" s="1">
-        <v>8355.436100000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>138767.5505</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0367</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>15.0121</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7452.6319</v>
       </c>
       <c r="F14" s="1">
         <v>-7452.6319</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111299.0947</v>
       </c>
       <c r="I14" s="1">
-        <v>111644.5639</v>
+        <v>8355.436100000001</v>
       </c>
       <c r="J14" s="1">
-        <v>14.9806</v>
+        <v>119654.5308</v>
       </c>
       <c r="K14" s="1">
+        <v>101644.5639</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.6387</v>
+      </c>
+      <c r="M14" s="1">
         <v>3.57</v>
       </c>
-      <c r="L14" s="1">
-        <v>23945.3062</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>135244.4008</v>
+        <v>22690.5155</v>
       </c>
       <c r="O14" s="1">
-        <v>143599.837</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>143599.837</v>
+        <v>133989.6101</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0347</v>
+        <v>-0.138</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.9716</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.0779</v>
+        <v>13.8214</v>
       </c>
       <c r="D3" s="1">
-        <v>14.8823</v>
+        <v>13.4241</v>
       </c>
       <c r="E3" s="1">
-        <v>14.9143</v>
+        <v>13.4958</v>
       </c>
       <c r="F3" s="1">
-        <v>14.9474</v>
+        <v>13.5676</v>
       </c>
       <c r="G3" s="1">
-        <v>14.9806</v>
+        <v>13.6387</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0563</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1577</v>
+        <v>0.0406</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1395</v>
+        <v>0.0449</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1432</v>
+        <v>0.0447</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1468</v>
+        <v>0.0443</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1504</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2133</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1246</v>
+        <v>0.2142</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1206</v>
+        <v>0.1958</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1213</v>
+        <v>0.1989</v>
       </c>
       <c r="F5" s="3">
-        <v>0.122</v>
+        <v>0.2022</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1227</v>
+        <v>0.2056</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.1687</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1027</v>
+        <v>0.0945</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9883999999999999</v>
+        <v>0.1257</v>
       </c>
       <c r="E6" s="4">
-        <v>1.013</v>
+        <v>0.1226</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0369</v>
+        <v>0.1186</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0606</v>
+        <v>0.1142</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.396</v>
+        <v>0.224</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4016</v>
+        <v>0.3831</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4019</v>
+        <v>0.3821</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4021</v>
+        <v>0.3811</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4023</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>25571.2738</v>
+        <v>23744.6678</v>
       </c>
       <c r="D8" s="1">
-        <v>22033.5109</v>
+        <v>21039.3785</v>
       </c>
       <c r="E8" s="1">
-        <v>22649.6456</v>
+        <v>21573.3322</v>
       </c>
       <c r="F8" s="1">
-        <v>23286.6723</v>
+        <v>22123.5466</v>
       </c>
       <c r="G8" s="1">
-        <v>23945.3062</v>
+        <v>22690.5155</v>
       </c>
     </row>
   </sheetData>
